--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACACC18-B28E-4900-BB37-16B6D6FEA97D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69B60D-4F60-448F-94C5-2766AA808C51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="01_テンプレート" sheetId="46" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -157,45 +157,6 @@
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>returnの変数名を統一する。
-また、変数名の宣言を先頭に統一する。
-統一することで保守性（可読性、デバッグのし易さ）を上げる。</t>
-    <rPh sb="7" eb="10">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センゲン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ホシュセイ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>カドクセイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,103 +244,6 @@
     </rPh>
     <rPh sb="162" eb="164">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if文の階層を深くしない。
-「処理の流れ」に関連し、メインの流れに合わないものはその場で処理を終わらせる。
-保守性（可読性、デバッグのし易さ）を上げる。</t>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>バ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理の流れ統一する。
-原則、メソッドのメイン処理が最後の処理となるようにする。「if文の階層」に関連する。
-例外、メソッドのメイン処理を最後にする方が複雑になる場合は最後にしなくてもよい。
-統一することで保守性（可読性、デバッグのし易さ）を上げる。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カイソウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>フクザツ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>サイゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -649,48 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メンバーは「アクセス範囲の最小化」により原則全てprivate修飾子にする。
-他のクラス化のアクセスは全てアクセサ（ゲッター、セッター）でやりとする。
-デバッグのし易いさ（ブレークポイントの設定が出来るやオーバーライド出来）のため。</t>
-    <rPh sb="10" eb="12">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サイショウカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲンソク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>シュウショクシ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ヤス</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -728,10 +550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統一することで保守性（可読性、デバッグのし易さ）を上げる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>規約グループ名</t>
     <rPh sb="0" eb="2">
       <t>キヤク</t>
@@ -827,10 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「return result;」にすることで、ブレークポイントを設定した場合に、値の確認がし易い。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一時的に「System.out.println」などを入れやすいくなる。「return result;」を正規表現で置換し、挿入することができるため。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -879,10 +693,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統一することで保守性（可読性、デバッグのし易さ）を上げる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メソッドのメイン処理が最後の処理となるようにする。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -933,50 +743,625 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保守性（可読性、デバッグのし易さ）を上げる。</t>
+    <t>列挙型の使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型を積極的に使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数で作成できるものは列挙型を使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の受け渡しの型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「値の型」と同じ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の受け渡しを「値の型」で定義した型でやり取りする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサの必須</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス範囲の最小化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的なコメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的な処理や規約に合わない処理などでにコメントを記載しておく。
+「//TODO 名前 日付 コメント内容」で記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェース必須</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスには必ずインタフェースを実装する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文などのコメント</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If文自体の説明は、if文の先頭で記載する。if文が成立する処理のコメントは処理の中で記載する。</t>
+    <rPh sb="24" eb="25">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「処理の流れ」に関連し、メインの流れに合わないものはその場で処理を終わらせる。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>if文の階層を深くしない。
-「処理の流れ」に関連し、メインの流れに合わないものはその場で処理を終わらせる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列挙型の使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列挙型を積極的に使用する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定数で作成できるものは列挙型を使用する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一時的な処理の場合は「一時的なコメント」を記載して使用し、後で削除か列挙型にする。
-また、原則を破ってでも列挙型を使用しないメリットがある場合のみ列挙型を使用しない。その場合は、定数で考え、次に変数で考える。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値の型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値の型を見ることで型を見ただけで理解できるため、メモリ容量の節約になるため、他の型への変換が容易のため。</t>
+メインの処理に該当しない場合は、そこで処理を終わらせる。</t>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の階層を深くせず、処理を見やすくする。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の中の処理がメイン処理にしない。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nullじゃない場合に処理をする必要がある場合は、nullの場合に処理を終了し、後続で処理を行う。</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウゾク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の階層が深くなるのなら、別のクラスやメソッドに分け呼び出しこのメソッド内では階層を深くしない。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。クラスまたはメソッドとして処理を分ける。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層が深いということはそれだけ条件が多いので、整理して行う。</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件をDBチェックや配列、リストによるチェックができないかを考える。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のクラスやメソッドに分ける。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch文の利用</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型のケースごとや判断はswitch文を利用する。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型テンプレートを使用する。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型を使用しない方がメリットがある場合のみ列挙型を使用しない。その場合は、定数で考え、次に変数で考える。</t>
+    <rPh sb="9" eb="10">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型が明確になる。</t>
+    <rPh sb="0" eb="1">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数での受け渡しなど値を間違えない。例えば、コード値が1～5の場合に、int型であれば1～5以外を渡すことができるが、列挙型だと定義されている列挙値しか指定できない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型テンプレートを使用するとデバッグ時にその値の意味が分かる。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値の基本となる型で定義する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付の値なら日付型で定義する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒヅケガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値の値なら数値型で定義する。</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>スウチガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真偽の値ならブール型で定義する。</t>
+    <rPh sb="0" eb="2">
+      <t>シンギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数やコード値などなら列挙型で定義する。</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>値の基本となる型で定義する。
-例えば、「2019/01/01」という値が日付なら日付型で管理する。他に、数値、ブール値、列挙型など。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値の受け渡しの型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「値の型」と同じ。</t>
+例えば、「2019/01/01」という値が日付なら日付型で管理する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワークやパッケージに依存している場合。ただ、例えば、"20190101"の文字列を受け取る場合だとしても型として日付型にできるのなら日付型にする。受け取る場合や最小で変換できる段階で日付型で持つ。</t>
+    <rPh sb="14" eb="16">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ヒヅケガタ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ヒヅケガタ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ヒヅケガタ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型を見ただけで理解ができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ容量の節約になる。</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の型への変換が容易。例えば、日付型で持っていれば、月日だけを取り出すことが容易。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ヒヅケガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションでは特に基本となる型で持ち、プレゼンテーションやドメインで必要な変換を行う。</t>
+    <rPh sb="10" eb="11">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型を見ただけで理解できるためやメモリ容量の節約になるため、他の型への変換が容易のため。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -984,39 +1369,500 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アクセサの必須</t>
+    <t>Beansコピーができない場合。但し、メソッド処理内で変換できる場合やメンバーを２つ持たせるなどで回避できる場合は基本の型でやり取りする。</t>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本の型で明確にしていることにより、引数に想定しない値を入れた場合にコンパイルエラーで発見できる。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ時に、値を確認しやすい。</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メンバーは「アクセス範囲の最小化」により原則全てprivate修飾子にする。
 他のクラス化のアクセスは全てアクセサ（ゲッター、セッター）でやりとする。
-デバッグのし易いさ（ブレークポイントの設定が出来るやオーバーライド出来）のため。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクセス範囲の最小化</t>
+デバッグのしやすいさ（ブレークポイントの設定が出来るやオーバーライド出来）のため。</t>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>シュウショクシ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「return result;」にすることで、ブレークポイントを設定した場合に、値の確認がしやすい。</t>
+  </si>
+  <si>
+    <t>メンバーは「アクセス範囲の最小化」により原則全てprivate修飾子にする。
+他のクラス化のアクセスは全てアクセサ（ゲッター、セッター）でやりとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグのしやすいさ（ブレークポイントの設定が出来るやオーバーライド出来）のため。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーは「アクセス範囲の最小化」によりprivate修飾子にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のクラス化のアクセスは全てアクセサ（ゲッター、セッター）でやりとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサが不要ない場合。その場合は、他のクラスからのアクセスがない場合になるはずである。</t>
+    <rPh sb="5" eb="7">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽象クラスや親クラス（子クラスからのアクセスを想定した場合）でもメンバーは全てprivate修飾子にし、子クラスからアクセスる場合でもアクセサを利用する。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>シュウショクシ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサを利用することにより、メソッド内に処理を増やしたり、ブレークポイントを行うことができる。</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、この値を設定している箇所を判断しやすい（Beansコピーの場合はEclipseの参照を使っても見つからない）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、System.out.printlnなどのログをを埋め込むことで値の出力がし易い。</t>
+    <rPh sb="37" eb="39">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス変数とクラス変数のメンバーのアクセス範囲を最小にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private修飾子とする。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>インスタンス変数とクラス変数のメンバーのアクセス範囲を最小にする。
-原則は全てprivate修飾子とする。例外としてアクセス修飾子がフレームワークやパッケージとして指定されているメンバーはそれに従う。但し、アクセサで取得、設定できる場合はメンバーをprivate修飾子として、アクセサでやり取りする。取得だけゲッターだけでも問題なければゲッターのみにする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一時的なコメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一時的な処理や規約に合わない処理などでにコメントを記載しておく。
-「//TODO 名前 日付 コメント内容」で記載する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インタフェース必須</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラスには必ずインタフェースを実装する。</t>
+private修飾子とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス修飾子がフレームワークやパッケージとして指定されているメンバーはそれに従う。ゲッターだけでも問題なければゲッターのみにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但し、アクセサで取得、設定できる場合はメンバーをprivate修飾子として、アクセサでやり取りする。取得だけでゲッターだけでも問題なければゲッターのみにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private修飾子とすることで、自クラス内だけの影響だけを考慮できる。</t>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>returnの変数名を統一する。
+また、変数名の宣言を先頭に統一する。
+統一することで保守性（可読性、デバッグのしやすさ）を上げる。</t>
+    <rPh sb="7" eb="10">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の流れ統一する。
+原則、メソッドのメイン処理が最後の処理となるようにする。「if文の階層」に関連する。
+例外、メソッドのメイン処理を最後にする方が複雑になる場合は最後にしなくてもよい。
+統一することで保守性（可読性、デバッグのしやすさ）を上げる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の階層を深くしない。
+「処理の流れ」に関連し、メインの流れに合わないものはその場で処理を終わらせる。
+保守性（可読性、デバッグのしやすさ）を上げる。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統一することで保守性（可読性、デバッグのしやすさ）を上げる。</t>
+  </si>
+  <si>
+    <t>保守性（可読性、デバッグのしやすさ）を上げる。</t>
+  </si>
+  <si>
+    <t>一時的な処理や規約に合わない処理などでにコメントを記載しておく。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「//TODO 名前 日付 コメント内容」で記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント指定の使い分け</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「/* ～ */」は処理の大枠のコメントで使用する。
+「//」は個別のコメントで使用する。
+原則、ソースのコメントアウトは禁止のため、コメントは全て説明のみである。</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オオワク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キンシ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードをコメントアウトのままにしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用しやすくなったソースはコメントアウトせずに削除する。後々必要になると思われる場合は、ソースのプロジェクトで管理するのではなく、別途適切に管理する。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ノチノチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1130,28 +1976,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1163,6 +1991,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,6 +2020,166 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21584</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037244BD-99EE-451D-9FA1-24FD8C33FF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3571875"/>
+          <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116F559F-0A33-4B43-A933-CE0404B39846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2619374"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D312BE6-9996-4F64-82F4-E2F90188509D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240000"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1445,338 +2445,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="112.5">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="112.5">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="93.75">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.5">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="112.5">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="112.5">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="131.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="37.5">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="112.5">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="93.75">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="37.5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="37.5">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="112.5">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="131.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="37.5">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="75">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="56.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
+  <autoFilter ref="A1:E15" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1786,73 +2702,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D43754-0470-4E42-9901-6016297A9414}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="37.5">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1862,75 +2788,85 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156751DF-88F4-474A-AEBD-EACE5FE6FDA9}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>75</v>
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1946,65 +2882,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2014,252 +2950,304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B3F820-E299-4768-AAB6-F511DE45EF8D}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5">
-      <c r="A2" s="6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="37.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="37.5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="37.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="37.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDBF1B7-8E73-4E78-A6DD-9FE738E3362F}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="37.5">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="37.5">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="37.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B127EF-E335-4189-A491-DA437C64A062}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="56.25">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="37.5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="37.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="37.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>57</v>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2270,79 +3258,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62556-F8B3-4A40-A126-A8943EE241E1}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>59</v>
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="37.5">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="56.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="75">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2352,76 +3352,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92B242-D6E9-40F1-A7CE-04491A1708D4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="56.25">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="37.5">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="37.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="37.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="37.5">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="37.5">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>64</v>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2432,76 +3470,78 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7523A9-5DF4-4957-9F35-921EB5DAAB20}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>66</v>
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="56.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="37.5">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>67</v>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2518,69 +3558,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="112.5">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="37.5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="37.5">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="37.5">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="37.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="37.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="37.5">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2590,75 +3650,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C2412-E29A-45F5-ABE4-1DC9BDE7C5F4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="131.25">
-      <c r="A2" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="56.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="37.5">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="56.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B69B60D-4F60-448F-94C5-2766AA808C51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5D753-0FAF-4BC8-96AE-66EDD5B94AF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="4710" windowWidth="28470" windowHeight="14520" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1863,6 +1863,170 @@
     <rPh sb="70" eb="72">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODOを付けることにより、Eclipseのタスクビューに表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的なコメントなのか必要なもののかを判別できるようにするため。誰がいつなぜそうしたかを分かるようにするため。</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスは1つ以上のインタフェースを実装する。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェースを実装することが実行などに影響する場合は不要。</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトごとに共通のインタフェースを実装しておくと、統一のメソッドの作成やAOPがし易くなる。</t>
+    <rPh sb="9" eb="11">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト指向ではメッセージでやり取りするがそのやり取りがメソッドと言える。オブジェクトはやり取りの口であるメソッドだけ意識すればよく、そのため、インタフェースを中心に考える方がモジュール構造が理解できるため。</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通インタフェースを実装することによるツールの活用が容易になるため。オブジェクト指向の考え方に合うため。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンショット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1912,7 +2076,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1972,11 +2136,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2005,6 +2178,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2026,15 +2211,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>21584</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>173202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2081,23 +2266,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>659755</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>173201</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116F559F-0A33-4B43-A933-CE0404B39846}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D312BE6-9996-4F64-82F4-E2F90188509D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2619374"/>
+          <a:off x="0" y="15240000"/>
           <a:ext cx="18128605" cy="12555702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2131,23 +2316,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>659755</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>173202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D312BE6-9996-4F64-82F4-E2F90188509D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC27B108-C88B-4E74-B122-8F96FEDA4021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2354,112 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15240000"/>
+          <a:off x="685800" y="3333750"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2534</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E85363-B9D0-4DF2-A4BB-DC9B688011A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4524375"/>
+          <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D980A9-9FBB-4881-BFBE-C10BFD97FD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17383125"/>
           <a:ext cx="18128605" cy="12555702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2447,11 +2737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2700,87 +2990,102 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D43754-0470-4E42-9901-6016297A9414}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2788,87 +3093,102 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156751DF-88F4-474A-AEBD-EACE5FE6FDA9}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2876,73 +3196,96 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2950,105 +3293,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B3F820-E299-4768-AAB6-F511DE45EF8D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="37.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="37.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3057,87 +3423,108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDBF1B7-8E73-4E78-A6DD-9FE738E3362F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="37.5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="37.5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3146,205 +3533,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B127EF-E335-4189-A491-DA437C64A062}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="37.5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="37.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="37.5">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="37.5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62556-F8B3-4A40-A126-A8943EE241E1}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="37.5">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="56.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="56.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3352,117 +3784,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92B242-D6E9-40F1-A7CE-04491A1708D4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="75">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="37.5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="37.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:3" ht="37.5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="37.5">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="37.5">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3470,81 +3923,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7523A9-5DF4-4957-9F35-921EB5DAAB20}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="56.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="56.25">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="37.5">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3552,97 +4026,120 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE367E25-A816-4726-A29A-CD9395B770BD}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="75">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="37.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="56.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:3" ht="56.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="37.5">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="37.5">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="37.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="37.5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="37.5">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3650,87 +4147,108 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C2412-E29A-45F5-ABE4-1DC9BDE7C5F4}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="56.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="56.25">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="37.5">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="56.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="56.25">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="56.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="56.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB5D753-0FAF-4BC8-96AE-66EDD5B94AF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5A4607-8BE3-4E13-B767-44E20430C678}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="4710" windowWidth="28470" windowHeight="14520" tabRatio="750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="150" windowWidth="28515" windowHeight="14520" tabRatio="750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="167">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1050,16 +1050,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>列挙型テンプレートを使用する。</t>
-    <rPh sb="0" eb="3">
-      <t>レッキョガタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>列挙型を使用しない方がメリットがある場合のみ列挙型を使用しない。その場合は、定数で考え、次に変数で考える。</t>
     <rPh sb="9" eb="10">
       <t>ホウ</t>
@@ -1125,28 +1115,6 @@
     </rPh>
     <rPh sb="76" eb="78">
       <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列挙型テンプレートを使用するとデバッグ時にその値の意味が分かる。</t>
-    <rPh sb="0" eb="3">
-      <t>レッキョガタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2027,6 +1995,514 @@
   </si>
   <si>
     <t>スクリーンショット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名</t>
+    <rPh sb="0" eb="2">
+      <t>メイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修飾子</t>
+    <rPh sb="0" eb="3">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不要な修飾子をつけない</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプルステータスの種類。列挙型のサンプル。</t>
+    <rPh sb="13" eb="16">
+      <t>レッキョガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型サンプルに合わせる。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「定義：開始」～「定義：終了」までに定義を実装する。</t>
+    <rPh sb="1" eb="3">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義の最後は、「,」で終わらせる。</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「定義：終了」のコメントの後に「;」がある。</t>
+    <rPh sb="13" eb="14">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」と「値」は必須。値は列挙型に使用する種類応じて設定する。Integer型を基本として、String型や独自クラスでも問題なし。</t>
+    <rPh sb="1" eb="3">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「getEnum」メソッドは必須で、「値」を受け取り、列挙型を返す。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「getName」メソッドは必須で、何も受け取らず、String型を返す。</t>
+    <rPh sb="14" eb="16">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「toString」メソッドのオーバーライドは必須で、値を返す。</t>
+    <rPh sb="23" eb="25">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型サンプルを使用するとデバッグ時にその値の意味が分かる。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」と「値」以外のインスタンス変数は自由に作成して問題ない。例えば、別名や一致に決まる値、補助値、説明情報など。</t>
+    <rPh sb="1" eb="3">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須以外のメソッドも自由に作成して問題ない。
+例えば、区切り文字の種類であれば、受け取った値を区切り文字で連結するなど。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージの階層に独立した「types」を必ず入れる。「XXXX.types.YYYY」、types前や後はなくても問題なし。</t>
+    <rPh sb="6" eb="8">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名称」はデバッグ時の確認用のため、実際には使用しない。ログも不可とする。但し、デバッグ用のため、出力などであればOKとする。</t>
+    <rPh sb="1" eb="3">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「NONE」の指定無しは必須で、必ず先頭に実装する。</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「getInitValue」メソッドは必須。処理に応ずるが何も決めがない場合は、「NONE」の指定無しとする。</t>
+    <rPh sb="19" eb="21">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「getDefault」メソッドは必須。処理に応ずるが何も決めがない場合は、「NONE」の指定無しとする。</t>
+    <rPh sb="17" eb="19">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型名のサフィックスを「Types」にする。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号004：列挙型の使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付・時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「java.time」の「日付／時刻API」を使用する。</t>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2149,7 +2625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2184,11 +2660,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2472,6 +2954,1777 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>125577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDCD6E5-ACBA-4812-988A-B4E8657E3478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="14954250"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED75670D-CACA-4EFA-BCF9-FEB7B25C7A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="4566"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="8572500"/>
+          <a:ext cx="18128605" cy="11982450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4133850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C185EAD2-63E4-425B-B2B2-18B7E51F028C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5543550" y="11906250"/>
+          <a:ext cx="7829550" cy="2438400"/>
+          <a:chOff x="5543550" y="11906250"/>
+          <a:chExt cx="7829550" cy="2438400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71A719F-4145-42DF-B295-B9190E10CF27}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543550" y="11906250"/>
+            <a:ext cx="3448050" cy="2438400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD0BFAD-3461-49D9-B982-0D554D12D65A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="14" idx="3"/>
+            <a:endCxn id="19" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991600" y="13125450"/>
+            <a:ext cx="857250" cy="271463"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EA72DA-8D8E-49A4-8751-E27701E671F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9848850" y="12849225"/>
+            <a:ext cx="3524250" cy="1095375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・コメントの「定義：開始」を先頭に、コメントの「定義：終了」を最後に、その後に「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」を入れる。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・「指定無し」は必須で、先頭にする。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・定義の後は、「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514E65F7-4C56-452C-A1BE-26AD6965ED79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8067675" y="10353675"/>
+          <a:ext cx="5524500" cy="400050"/>
+          <a:chOff x="5572125" y="11677650"/>
+          <a:chExt cx="5524500" cy="400050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D7BA30-387F-4D37-8744-02BF9998F511}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5572125" y="11887200"/>
+            <a:ext cx="400050" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438DE618-9B5F-4CB8-AD50-1EEFA832EBD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="23" idx="3"/>
+            <a:endCxn id="25" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5972175" y="11844338"/>
+            <a:ext cx="914400" cy="138112"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16336794-86D1-47C1-A590-D85CD63C66B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6886575" y="11677650"/>
+            <a:ext cx="4210050" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・パッケージの階層に独立した「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>types</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」を必ず入れる。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B08E6B-6DBD-4306-84DF-81E64878214D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7105650" y="11458575"/>
+          <a:ext cx="5524500" cy="400050"/>
+          <a:chOff x="5572125" y="11677650"/>
+          <a:chExt cx="5524500" cy="400050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F01871B-4384-4B99-AE17-EF414C246F8A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5572125" y="11887200"/>
+            <a:ext cx="400050" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7242478-6CF5-492B-A425-94ED7BB1F8FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="35" idx="3"/>
+            <a:endCxn id="37" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5972175" y="11844338"/>
+            <a:ext cx="914400" cy="138112"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903CB234-2C84-4F44-AF93-B0C650696AA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6886575" y="11677650"/>
+            <a:ext cx="4210050" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・列挙型名のサフィックスを「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Types</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」にする。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4171950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E493B976-A36F-4B52-A861-C84DA08EF5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5581650" y="14411325"/>
+          <a:ext cx="8086725" cy="752475"/>
+          <a:chOff x="5543550" y="11906250"/>
+          <a:chExt cx="8086725" cy="752475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D836A61C-487B-470B-B68C-7ABCF13B6EAF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543550" y="11906250"/>
+            <a:ext cx="4210050" cy="752475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA0C9CA-C6AD-40D9-B2A2-A316F510F0AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="39" idx="3"/>
+            <a:endCxn id="41" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9753600" y="12158663"/>
+            <a:ext cx="1790700" cy="123825"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AED5147-652B-4E0D-AF17-1B62EFD8234A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11544300" y="11982450"/>
+            <a:ext cx="2085975" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・「名称」と「値」は必須。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4190999</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076F0887-EA48-4635-AE9B-E7565C246B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5600699" y="18392776"/>
+          <a:ext cx="7639051" cy="7734300"/>
+          <a:chOff x="5543549" y="11906251"/>
+          <a:chExt cx="7639051" cy="7734300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C436E9-49C1-45B9-A0B3-D45EB8D20D97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543549" y="11906251"/>
+            <a:ext cx="5114925" cy="7734300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0340E817-73D4-4424-B50A-CB7177219BFD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="47" idx="3"/>
+            <a:endCxn id="49" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10658474" y="15773401"/>
+            <a:ext cx="781051" cy="109537"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFE5913-80DB-458E-B732-10BAC37ED858}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11439525" y="15706725"/>
+            <a:ext cx="1743075" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・各メソッドは必須。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4219575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760A0A99-F64D-49F9-84C3-4FD650179C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5629275" y="26165175"/>
+          <a:ext cx="7934325" cy="1485900"/>
+          <a:chOff x="5543550" y="11906250"/>
+          <a:chExt cx="7934325" cy="1485900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2636E922-DC2D-4DD2-A8B8-943F4787E49E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543550" y="11906250"/>
+            <a:ext cx="3771900" cy="1447800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591645E6-8D4A-4EDF-A94C-116E37B433B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="56" idx="3"/>
+            <a:endCxn id="58" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9315450" y="12630150"/>
+            <a:ext cx="904875" cy="428625"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8DAD57-1C88-4A0B-8173-4BBFDFDFBB17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10220325" y="12725400"/>
+            <a:ext cx="3257550" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>toString</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>」メソッドのオーバーライドは必須で、値を返す。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>125577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C62F87-FC87-4D23-8F47-2AAA9A9D3BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="32099250"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053A3510-BFD3-4CDD-A3A5-E3304C47DA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="4566"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="28813125"/>
+          <a:ext cx="18128605" cy="11982450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4486274</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69D713E-9536-481D-BC94-82BA73B7E661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5895974" y="38395275"/>
+          <a:ext cx="8305801" cy="3000375"/>
+          <a:chOff x="5543549" y="11906250"/>
+          <a:chExt cx="8305801" cy="3000375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DFA84A-F9F5-4605-85FF-ABC67BA5C224}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5543549" y="11906250"/>
+            <a:ext cx="7572376" cy="2257425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA2E2E0-2BB1-4B1A-B508-18405FB9A288}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="72" idx="2"/>
+            <a:endCxn id="74" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9329737" y="14163675"/>
+            <a:ext cx="2014538" cy="566738"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A80DDE-E968-4BFD-B6CE-0CEEC2C753BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11344275" y="14554200"/>
+            <a:ext cx="2505075" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>・「</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>switch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>文の利用」に関連する。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824B5A19-44E5-4D01-A160-A70E65AE796B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="5715000"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9885751-3AEE-4C1C-B4A4-B487E92AC295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3333750"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2735,13 +4988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2782,7 +5035,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2797,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -2812,7 +5065,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2872,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2959,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2974,12 +5227,130 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E15" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
@@ -3003,12 +5374,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3039,13 +5410,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3053,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3061,7 +5432,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5">
@@ -3069,17 +5440,17 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3106,12 +5477,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3142,7 +5513,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3150,7 +5521,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
@@ -3158,13 +5529,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5">
@@ -3172,17 +5543,17 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3209,12 +5580,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3274,12 +5645,12 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3306,10 +5677,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3381,7 +5752,7 @@
     <row r="11" spans="1:3" ht="37.5">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5">
@@ -3395,7 +5766,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3404,12 +5775,12 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3436,12 +5807,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3508,17 +5879,17 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3546,12 +5917,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3642,17 +6013,17 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3667,10 +6038,232 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62556-F8B3-4A40-A126-A8943EE241E1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.5">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="56.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37.5">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="56.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B28:C28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92B242-D6E9-40F1-A7CE-04491A1708D4}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3682,19 +6275,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3702,15 +6295,15 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3718,75 +6311,102 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
-      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="56.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="37.5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="13"/>
+      <c r="C17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92B242-D6E9-40F1-A7CE-04491A1708D4}">
-  <dimension ref="A1:C17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7523A9-5DF4-4957-9F35-921EB5DAAB20}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3797,12 +6417,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -3817,15 +6437,15 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3833,99 +6453,64 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="3"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="56.25">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="37.5">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="37.5">
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="37.5">
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="13"/>
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7523A9-5DF4-4957-9F35-921EB5DAAB20}">
-  <dimension ref="A1:C11"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE367E25-A816-4726-A29A-CD9395B770BD}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3936,19 +6521,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3956,15 +6541,15 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3972,122 +6557,19 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="56.25">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.5">
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE367E25-A816-4726-A29A-CD9395B770BD}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="37.5">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="56.25">
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
@@ -4095,7 +6577,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5">
@@ -4103,19 +6585,19 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5">
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5">
@@ -4123,17 +6605,17 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4160,12 +6642,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -4188,7 +6670,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
@@ -4196,13 +6678,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="56.25">
@@ -4210,13 +6692,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="56.25">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4224,7 +6706,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4232,17 +6714,17 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5A4607-8BE3-4E13-B767-44E20430C678}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F6E28-0A43-4700-8DC6-B17CB6664700}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="150" windowWidth="28515" windowHeight="14520" tabRatio="750" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="3045" windowWidth="28470" windowHeight="14520" tabRatio="750" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="168">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1480,59 +1480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アクセサが不要ない場合。その場合は、他のクラスからのアクセスがない場合になるはずである。</t>
-    <rPh sb="5" eb="7">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>抽象クラスや親クラス（子クラスからのアクセスを想定した場合）でもメンバーは全てprivate修飾子にし、子クラスからアクセスる場合でもアクセサを利用する。</t>
-    <rPh sb="0" eb="2">
-      <t>チュウショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>シュウショクシ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アクセサを利用することにより、メソッド内に処理を増やしたり、ブレークポイントを行うことができる。</t>
     <rPh sb="5" eb="7">
       <t>リヨウ</t>
@@ -2502,6 +2449,66 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抽象クラスや親クラス（子クラスからのアクセスを想定した場合）でもメンバーは全てprivate修飾子にし、子クラスからアクセスする場合でもアクセサを利用する。</t>
+    <rPh sb="0" eb="2">
+      <t>チュウショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>シュウショクシ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセサが不要ない場合。</t>
+    <rPh sb="5" eb="7">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワークやパッケージ制約によりprivate修飾子ができない場合かつアクセサでのアクセスができない場合。</t>
+    <rPh sb="13" eb="15">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>シュウショクシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2661,6 +2668,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2668,9 +2678,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4725,6 +4732,171 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2534</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AD78AD-CF9E-4DD3-83E4-44DC0A68016B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="5953125"/>
+          <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2D461C-940F-4BCB-8789-D39FA6780023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="4524375"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F4D8FA-4B8A-4EAC-9602-7CA4865D062E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3095625"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5035,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -5050,7 +5222,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -5065,7 +5237,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -5212,10 +5384,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -5227,10 +5399,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -5239,10 +5411,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5252,10 +5424,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5265,10 +5437,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5278,10 +5450,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5294,10 +5466,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -5306,13 +5478,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -5363,7 +5535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D43754-0470-4E42-9901-6016297A9414}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5374,12 +5548,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5410,13 +5584,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5424,7 +5598,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5432,7 +5606,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5">
@@ -5440,17 +5614,17 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5459,6 +5633,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5477,12 +5652,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5513,7 +5688,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5521,7 +5696,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
@@ -5529,13 +5704,13 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="37.5">
@@ -5543,17 +5718,17 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5580,12 +5755,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5645,12 +5820,12 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5677,10 +5852,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5766,7 +5941,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5775,12 +5950,12 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5807,12 +5982,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5879,17 +6054,17 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5917,12 +6092,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6013,17 +6188,17 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6051,12 +6226,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6093,85 +6268,85 @@
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="37.5">
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="37.5">
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="37.5">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="37.5">
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.5">
@@ -6199,19 +6374,19 @@
     <row r="23" spans="1:3">
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="37.5">
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="56.25">
       <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6219,32 +6394,32 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>144</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6275,12 +6450,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6382,12 +6557,12 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6417,12 +6592,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6488,12 +6663,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6508,9 +6683,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE367E25-A816-4726-A29A-CD9395B770BD}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6521,12 +6698,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6569,61 +6746,68 @@
     <row r="7" spans="1:3" ht="56.25">
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="37.5">
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="37.5">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="37.5">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37.5">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6631,7 +6815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C2412-E29A-45F5-ABE4-1DC9BDE7C5F4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6642,12 +6828,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6670,7 +6856,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
@@ -6678,13 +6864,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="56.25">
@@ -6692,13 +6878,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="56.25">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6706,7 +6892,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6714,17 +6900,17 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6733,5 +6919,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F6E28-0A43-4700-8DC6-B17CB6664700}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4D43B-4D5D-4071-B4FF-143E0E297A5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3045" windowWidth="28470" windowHeight="14520" tabRatio="750" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="4860" windowWidth="28485" windowHeight="14520" tabRatio="814" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="008_アクセス範囲の最小化" sheetId="42" r:id="rId9"/>
     <sheet name="009_一時的なコメント" sheetId="43" r:id="rId10"/>
     <sheet name="010_インタフェース必須" sheetId="44" r:id="rId11"/>
-    <sheet name="01_テンプレート" sheetId="46" r:id="rId12"/>
+    <sheet name="011_if文などのコメント" sheetId="47" r:id="rId12"/>
+    <sheet name="012_switch文の利用" sheetId="48" r:id="rId13"/>
+    <sheet name="013_コメント指定の使い分け" sheetId="49" r:id="rId14"/>
+    <sheet name="014_ソースコードをコメントアウトのままにしない" sheetId="50" r:id="rId15"/>
+    <sheet name="015_クラス名" sheetId="51" r:id="rId16"/>
+    <sheet name="016_パッケージ名" sheetId="53" r:id="rId17"/>
+    <sheet name="017_メソッド名" sheetId="54" r:id="rId18"/>
+    <sheet name="018_変数名" sheetId="55" r:id="rId19"/>
+    <sheet name="019_列挙型の定義" sheetId="56" r:id="rId20"/>
+    <sheet name="020_定数名" sheetId="57" r:id="rId21"/>
+    <sheet name="021_修飾子" sheetId="52" r:id="rId22"/>
+    <sheet name="022_日付・時刻" sheetId="58" r:id="rId23"/>
+    <sheet name="023_インタフェースの型で宣言する" sheetId="59" r:id="rId24"/>
+    <sheet name="02_テンプレート" sheetId="46" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$15</definedName>
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="224">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -2509,6 +2522,734 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E3%82%AD%E3%83%A3%E3%83%A1%E3%83%AB%E3%82%B1%E3%83%BC%E3%82%B9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスカルケース（アッパーキャメルケース）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て小文字。複合語の場合も全て小文字、但し、プロジェクトで認められる複合語の場合は「-」区切りの指定も可能。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フクゴウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>フクゴウゴ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャメルケース（ローワーキャメルケース）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定数名</t>
+    <rPh sb="0" eb="2">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スネークケースで全て大文字。</t>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オオモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型の定義</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャメルケース（ローワーキャメルケース）。わかりやすい名前を付ける。</t>
+    <rPh sb="27" eb="29">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス生成の定義の型は、インタフェースを利用する。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェースの型で宣言する</t>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントが分かりづらくなる場合など。</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文の説明なのか、処理の説明なのかを分かるようにするため、</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文単体の場合は、if文の先頭に条件のコメント、中に成立する条件を記載する。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if～else文の場合も、if文の先頭に条件のコメント、中に成立する条件を記載する。</t>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型の定義は全てcaseとして実装する。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch文を使うことで分かりづらい処理の場合。判断の条件が複雑化する場合。</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>フクザツカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判断が見やすいため、定義漏れ（分岐漏れ）がしづらいため。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定義を全て実装することで、定義が増えた場合にも直ぐにコンパイルエラーになる。</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の定義の順番は列挙型の定義の順に合わせる。処理がまとめる条件も列挙型の定義の順に合わせる。</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>レッキョガタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理がまとまる条件はまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultは必須として、エラーとして扱う。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defaultは定義漏れの場合なので、エラー処理にすることで実行時に分かる。</t>
+    <rPh sb="8" eb="10">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「/* ～ */」は処理の大枠のコメントで使用する。</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オオワク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「//」は個別のコメントで使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースのコメントアウトは禁止のため、コメントは全て説明のみである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の大枠のコメントを「/* ～ */」にすることにより処理の流れが見やすい。</t>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理の流れを把握しやすくするため。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的なコメントの場合。但し、「一時的なコメント」のルールは守ること。</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースが見づらく、ソースも古くなり再利用することが難しいため。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースを見やすくするという観点で気を付ける。</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaの規則に合わせるため、クラスだと分かるようにするため。</t>
+    <rPh sb="5" eb="7">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If文自体の説明は、if文の先頭で記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文が成立する処理のコメントは処理の中で記載する。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント指定の使い分け。「/* ～ */」や「//」を分ける。</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用しやすくなったソースはコメントアウトせずに削除する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用しやすくなったソースはコメントアウトせずに削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後々必要になると思われる場合は、ソースのプロジェクトで管理するのではなく、別途適切に管理する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスカルケース（アッパーキャメルケース）する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全て小文字。複合語の場合も全て小文字にする。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フクゴウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コモジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャメルケース（ローワーキャメルケース）にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャメルケース（ローワーキャメルケース）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかりやすい名前を付ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗長を排除することが見やすいため。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェースのメソッドに「public abstract」修飾子をつけない。</t>
+    <rPh sb="30" eb="33">
+      <t>シュウショクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェースの定数に「final public static」修飾子をつけない。</t>
+    <rPh sb="8" eb="10">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型のコンストラクタに「private」修飾子をつけない。</t>
+    <rPh sb="0" eb="3">
+      <t>レッキョガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワークやパッケージで「java.util.Date」を使用しないといけない場合。</t>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「LocalDate」、「LocalTime」、「LocalDateTime」などを使用する。</t>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトの生成は、「LocalDate#now()」や「LocalDate#of(int, int, int)」を使用する。</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DateをLocalDateに変換する場合、「LocalDate localDate = new Date().toInstant().atZone(ZoneId.systemDefault()).toLocalDate();」</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalDateをDateに変換する場合、「Date.from(LocalDate.now().atStartOfDay(ZoneId.systemDefault()).toInstant());」</t>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最新化に対応と国際対応のため。</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスではないと使用できない場合。</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インタフェースを利用することにより、実装の中身を意識しなくなるため。</t>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用する場面で実装内容で判断させないことにより、拡張性、保守性が向上するため。</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>カクチョウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2520,7 +3261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2542,6 +3283,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2629,10 +3378,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2673,14 +3423,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2740,6 +3503,321 @@
         <a:xfrm>
           <a:off x="0" y="3571875"/>
           <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2534</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC750271-0EC8-478E-83C3-15FE09FD6BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3810000"/>
+          <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDD5D71-C8EB-4C1F-825F-EBB4D6A3A2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="16430625"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233C77E2-7BAD-4EFB-84BA-0CCB199A4D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B6A746-9BE1-40D0-A06F-E7DD93EB8968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="16192500"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46269D8-DC92-4F45-B48A-8E2C0618CBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="4524375"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{786F876E-2A2D-42DD-851D-33EE1A1B296B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="17145000"/>
+          <a:ext cx="18128605" cy="12555702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5160,13 +6238,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5416,10 +6494,14 @@
       <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1">
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="37.5">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5429,7 +6511,9 @@
       <c r="C17" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1">
@@ -5442,10 +6526,14 @@
       <c r="C18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="D18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" ht="37.5">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5455,64 +6543,88 @@
       <c r="C19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1">
+    <row r="20" spans="1:5" s="13" customFormat="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="37.5">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1">
@@ -5524,9 +6636,33 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
+    <row r="26" spans="1:5" s="11" customFormat="1">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" s="11" customFormat="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E15" xr:uid="{BC49F2C9-5664-495B-8669-4B21211819C7}"/>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{67000850-7AB3-416E-B360-10A4C4E3E406}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{1005AB77-996D-42D4-9C88-B39D23D10A8F}"/>
+    <hyperlink ref="E21" r:id="rId3" xr:uid="{BFF91376-8A78-4159-82AF-33CA626FCA19}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{2A0A2997-0D22-4CEF-A8AC-64ACAEEA9361}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5535,9 +6671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D43754-0470-4E42-9901-6016297A9414}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5550,10 +6684,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5621,10 +6755,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5654,10 +6788,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -5725,10 +6859,461 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E9475-D811-4D8C-84A5-F1ACCAA98111}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5C7A81-9841-4B53-B9D8-40D4E6F39366}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47C5B05-9615-4CA2-A762-B899B3622C9A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C50AEAB-4F8C-47A7-BF11-539C132499A7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5740,97 +7325,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
-  <dimension ref="A1:C14"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7B7FFB-1DE3-4309-AE07-E96D7E1494BB}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD793C-4CFF-434F-AA47-C2B7A6FC7278}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDBB81B-769B-4124-A296-696649B195E6}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7CB443-D7EB-4CD7-814A-98DF265D0D51}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="18" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5952,10 +7838,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5964,6 +7850,630 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE8A5E-2583-461F-8472-EA4EC7999DAF}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD4EE71-D020-4D69-880E-D1627725FD1C}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A92DE-3728-49F5-B46A-38056A715868}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B17F2F-7591-4C50-B5E9-D9DD46879156}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="56.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877F7C0A-9589-42FD-AE39-F4D587710059}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5984,10 +8494,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6061,10 +8571,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6094,10 +8604,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6195,10 +8705,10 @@
       <c r="A16" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6215,7 +8725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B62556-F8B3-4A40-A126-A8943EE241E1}">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6228,10 +8738,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6401,10 +8911,10 @@
       <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
@@ -6437,9 +8947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92B242-D6E9-40F1-A7CE-04491A1708D4}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6452,10 +8960,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6559,10 +9067,10 @@
       <c r="A17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6579,9 +9087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7523A9-5DF4-4957-9F35-921EB5DAAB20}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6594,10 +9100,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6665,10 +9171,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6685,9 +9191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE367E25-A816-4726-A29A-CD9395B770BD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6700,10 +9204,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6795,10 +9299,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6815,9 +9319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C2412-E29A-45F5-ABE4-1DC9BDE7C5F4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -6830,10 +9332,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6907,10 +9409,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
+++ b/araikenichiro.blog.fc2.com/番号ごと/00001/00020/002_コーディング規約（Java）.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4D43B-4D5D-4071-B4FF-143E0E297A5A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481B620-CD75-4246-BDCB-F2D52CE0A0DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="4860" windowWidth="28485" windowHeight="14520" tabRatio="814" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2085" windowWidth="28470" windowHeight="14520" tabRatio="814" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="021_修飾子" sheetId="52" r:id="rId22"/>
     <sheet name="022_日付・時刻" sheetId="58" r:id="rId23"/>
     <sheet name="023_インタフェースの型で宣言する" sheetId="59" r:id="rId24"/>
-    <sheet name="02_テンプレート" sheetId="46" r:id="rId25"/>
+    <sheet name="024_戻り値の取得" sheetId="60" r:id="rId25"/>
+    <sheet name="02_テンプレート" sheetId="46" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$A$1:$E$15</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="237">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -3249,6 +3250,268 @@
       <t>ホシュセイ</t>
     </rPh>
     <rPh sb="32" eb="34">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値の取得</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値は一度変数に値を設定する。別のメソッドの引数として利用する場合は、直接メソッドの戻り値を設定しない。デバッグや変更がしづらいため。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の日付や時刻の違いのポイントやフォーマット指定などは【処理ポイント】を参照のこと。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のメソッドの引数として利用する場合は、直接メソッドの戻り値を設定しない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値は一度変数に値を設定する。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に取得値が分かっている場合などは変数に値を設定しなくても良いが、保守性を考えると取得値が分かっている場合でも原則設定したほうがいい。</t>
+    <rPh sb="0" eb="1">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冗長になりソースが見づらくなる場合。その場合も取得値が分かっているメソッドから設定すること。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷った場合は原則を順守し、一度変数に値を設定する。</t>
+    <rPh sb="0" eb="1">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ時に、ブレークポイントを行いやすい。</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ時に値を確認したい場合など変数名を参照するだけ知ることができる。</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を変更するやデバッグ時に値を変えやすい。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグや変更がしやすい。保守性の向上。</t>
+    <rPh sb="13" eb="16">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
       <t>コウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3382,7 +3645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3426,12 +3689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3440,6 +3697,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3817,6 +4083,226 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="257175" y="17145000"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2534</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B66BDB-6241-4CF0-962D-69C136111156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3095625"/>
+          <a:ext cx="18157184" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8D2709-AE31-4D37-99E1-EDF61A764644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="4762500"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C3A99E-1AF9-4ACD-AD8E-D1AE72B11369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2857500"/>
+          <a:ext cx="18128605" cy="12555702"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>659755</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52FE098-A666-47B4-AE87-F358355F8F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="5238750"/>
           <a:ext cx="18128605" cy="12555702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6240,11 +6726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6497,7 +6983,7 @@
       <c r="D16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6529,7 +7015,7 @@
       <c r="D18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6561,7 +7047,7 @@
       <c r="D20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6578,7 +7064,7 @@
       <c r="D21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>168</v>
       </c>
     </row>
@@ -6627,13 +7113,19 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="56.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1">
@@ -6684,10 +7176,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6755,10 +7247,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6788,10 +7280,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6859,10 +7351,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6892,10 +7384,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -6906,7 +7398,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -6969,10 +7461,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7002,10 +7494,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7016,7 +7508,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7097,10 +7589,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7130,10 +7622,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7144,7 +7636,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7183,7 +7675,7 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7207,10 +7699,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7239,10 +7731,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7253,7 +7745,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7310,10 +7802,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7329,9 +7821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7B7FFB-1DE3-4309-AE07-E96D7E1494BB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7344,10 +7834,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7358,7 +7848,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7385,7 +7875,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7393,7 +7883,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7409,10 +7899,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7428,9 +7918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD793C-4CFF-434F-AA47-C2B7A6FC7278}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7443,10 +7931,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7457,7 +7945,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7484,7 +7972,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7492,7 +7980,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7508,10 +7996,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7540,10 +8028,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7554,7 +8042,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7581,7 +8069,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7589,7 +8077,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7605,10 +8093,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7637,10 +8125,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7651,7 +8139,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7684,7 +8172,7 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7692,7 +8180,7 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7708,10 +8196,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7838,10 +8326,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7870,10 +8358,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7884,7 +8372,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -7911,7 +8399,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7919,7 +8407,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7935,10 +8423,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7967,10 +8455,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -7981,7 +8469,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8008,7 +8496,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8016,7 +8504,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8032,10 +8520,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8051,7 +8539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47A92DE-3728-49F5-B46A-38056A715868}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -8064,10 +8552,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8078,7 +8566,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8123,7 +8611,7 @@
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8131,7 +8619,7 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8147,10 +8635,10 @@
       <c r="A13" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8159,12 +8647,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B17F2F-7591-4C50-B5E9-D9DD46879156}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8179,10 +8668,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8193,7 +8682,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8205,7 +8694,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8245,35 +8734,42 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="56.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8294,10 +8790,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8308,7 +8804,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8359,10 +8855,10 @@
       <c r="A10" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8371,10 +8867,139 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5104B5BD-AC4A-4969-A37E-E655090AE942}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="56.25">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="56.25">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89176D82-5A71-4F86-8C58-22E02CAB10F5}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -8391,10 +9016,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8403,7 +9028,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -8462,10 +9087,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8494,10 +9119,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8571,10 +9196,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8604,10 +9229,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8705,10 +9330,10 @@
       <c r="A16" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8738,10 +9363,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -8911,10 +9536,10 @@
       <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="16"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
@@ -8960,10 +9585,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -9067,10 +9692,10 @@
       <c r="A17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9100,10 +9725,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -9171,10 +9796,10 @@
       <c r="A11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9204,10 +9829,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -9299,10 +9924,10 @@
       <c r="A15" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9332,10 +9957,10 @@
       <c r="A1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
@@ -9409,10 +10034,10 @@
       <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
